--- a/res/Pharmacy.xlsx
+++ b/res/Pharmacy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects\ESI\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects\ESI\ESI - Python\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE071EC-DDE3-4E1D-9735-8CE74E918D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972849DD-C197-4BCF-8B0E-9F71DDF525FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,16 +440,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,6 +466,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,7 +794,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:R359"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -893,15 +893,15 @@
       <c r="R6" s="21"/>
     </row>
     <row r="7" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
+      <c r="B7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
@@ -912,22 +912,22 @@
       <c r="R7" s="21"/>
     </row>
     <row r="8" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="22"/>
@@ -1388,14 +1388,14 @@
       <c r="O38" s="31"/>
     </row>
     <row r="39" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
       <c r="H39" s="8">
         <f>SUM(H14:H38)</f>
         <v>0</v>
@@ -1407,26 +1407,26 @@
       <c r="R39" s="35"/>
     </row>
     <row r="40" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="55"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
       <c r="M40" s="25"/>
       <c r="N40" s="25"/>
       <c r="O40" s="31"/>
     </row>
     <row r="41" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
       <c r="H41" s="9">
         <f>H39/1.12</f>
         <v>0</v>
@@ -1436,14 +1436,14 @@
       <c r="O41" s="31"/>
     </row>
     <row r="42" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
       <c r="H42" s="9">
         <f>(H39-H41)/2</f>
         <v>0</v>
@@ -1453,14 +1453,14 @@
       <c r="O42" s="31"/>
     </row>
     <row r="43" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
       <c r="H43" s="9">
         <f>(H39-H41)/2</f>
         <v>0</v>
@@ -1485,22 +1485,22 @@
       <c r="O46" s="31"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="H47" s="52" t="s">
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="H47" s="61" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="H48" s="52"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="H48" s="61"/>
     </row>
     <row r="52" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1526,16 +1526,16 @@
     <row r="359" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B47:E48"/>
+    <mergeCell ref="H47:H48"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B7:D8"/>
     <mergeCell ref="E7:H8"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B47:E48"/>
-    <mergeCell ref="H47:H48"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1546,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754F4C34-C0FC-4402-8BCA-113C36538C2F}">
   <dimension ref="B1:H48"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1598,33 +1598,33 @@
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
+      <c r="B7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
@@ -1960,87 +1960,87 @@
       </c>
     </row>
     <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
       <c r="H39" s="8">
         <f>SUM(H14:H38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="55"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
     </row>
     <row r="41" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
       <c r="H41" s="9">
         <f>H39/1.12</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
       <c r="H42" s="9">
         <f>(H39-H41)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
       <c r="H43" s="9">
         <f>(H39-H41)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="H47" s="52" t="s">
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="H47" s="61" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="H48" s="52"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="H48" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2115,33 +2115,33 @@
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
+      <c r="B7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
@@ -2477,100 +2477,100 @@
       </c>
     </row>
     <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
       <c r="H39" s="8">
         <f>SUM(H14:H38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="55"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
     </row>
     <row r="41" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
       <c r="H41" s="9">
         <f>H39/1.12</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
       <c r="H42" s="9">
         <f>(H39-H41)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
       <c r="H43" s="9">
         <f>(H39-H41)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="H47" s="52" t="s">
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="H47" s="61" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="H48" s="52"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="H48" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="E7:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B39:G39"/>
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="B47:E48"/>
     <mergeCell ref="H47:H48"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="E7:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B39:G39"/>
   </mergeCells>
   <pageMargins left="0.23622047244094488" right="0.23622047244094488" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2635,33 +2635,33 @@
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
+      <c r="B7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
@@ -2997,100 +2997,100 @@
       </c>
     </row>
     <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
       <c r="H39" s="8">
         <f>SUM(H14:H38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="55"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
     </row>
     <row r="41" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
       <c r="H41" s="9">
         <f>H39/1.12</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
       <c r="H42" s="9">
         <f>(H39-H41)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
       <c r="H43" s="9">
         <f>(H39-H41)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="H47" s="52" t="s">
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="H47" s="61" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="H48" s="52"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="H48" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="E7:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B39:G39"/>
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="B47:E48"/>
     <mergeCell ref="H47:H48"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="E7:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B39:G39"/>
   </mergeCells>
   <pageMargins left="0.23622047244094488" right="0.23622047244094488" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3152,33 +3152,33 @@
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
+      <c r="B7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
@@ -3514,100 +3514,100 @@
       </c>
     </row>
     <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
       <c r="H39" s="8">
         <f>SUM(H14:H38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="55"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
     </row>
     <row r="41" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
       <c r="H41" s="9">
         <f>H39/1.12</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
       <c r="H42" s="9">
         <f>(H39-H41)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
       <c r="H43" s="9">
         <f>(H39-H41)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="H47" s="52" t="s">
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="H47" s="61" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="H48" s="52"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="H48" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="E7:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B39:G39"/>
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="B47:E48"/>
     <mergeCell ref="H47:H48"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="E7:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B39:G39"/>
   </mergeCells>
   <pageMargins left="0.23622047244094488" right="0.23622047244094488" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3670,33 +3670,33 @@
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
+      <c r="B7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
@@ -4032,100 +4032,100 @@
       </c>
     </row>
     <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
       <c r="H39" s="8">
         <f>SUM(H14:H38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="55"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
     </row>
     <row r="41" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
       <c r="H41" s="9">
         <f>H39/1.12</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
       <c r="H42" s="9">
         <f>(H39-H41)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
       <c r="H43" s="9">
         <f>(H39-H41)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="H47" s="52" t="s">
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="H47" s="61" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="H48" s="52"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="H48" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="E7:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B39:G39"/>
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="B47:E48"/>
     <mergeCell ref="H47:H48"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="E7:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B39:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
